--- a/Rao Q tables/all/Table1.xlsx
+++ b/Rao Q tables/all/Table1.xlsx
@@ -5,30 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\wanang_ants\Rao Q tables\all\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\wanang_ants\Rao Q tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDE235F-93BC-483A-8713-E8B1A83A740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECECB87E-7C50-47DF-9CAC-0990D5349133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14475" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="1110" windowWidth="21600" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -136,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,28 +152,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -231,20 +209,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -281,10 +250,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -297,21 +262,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,8 +271,17 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L19"/>
+  <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +577,7 @@
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
   </cols>
@@ -640,19 +599,19 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="2:12" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
@@ -708,7 +667,7 @@
       <c r="G6" s="4">
         <v>0.192</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="25">
         <v>-0.6610277</v>
       </c>
       <c r="I6" s="9">
@@ -717,14 +676,14 @@
       <c r="J6" s="4">
         <v>0.53</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <v>-3.5938119999999997E-2</v>
       </c>
       <c r="L6" s="3">
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
@@ -743,7 +702,7 @@
       <c r="G7" s="7">
         <v>0.21299999999999999</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="25">
         <v>0.30965150000000002</v>
       </c>
       <c r="I7" s="9">
@@ -752,22 +711,22 @@
       <c r="J7" s="8">
         <v>0.51800000000000002</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="8">
         <v>-0.63857554000000005</v>
       </c>
       <c r="L7" s="6">
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6">
-        <v>84</v>
+      <c r="D8" s="10">
+        <v>64</v>
       </c>
       <c r="E8" s="6">
         <v>472</v>
@@ -778,7 +737,7 @@
       <c r="G8" s="6">
         <v>0.189</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="25">
         <v>-0.66873470000000002</v>
       </c>
       <c r="I8" s="6">
@@ -787,14 +746,14 @@
       <c r="J8" s="8">
         <v>0.51500000000000001</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="8">
         <v>0.26983810000000003</v>
       </c>
       <c r="L8" s="6">
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
@@ -802,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="10">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E9" s="6">
         <v>380</v>
@@ -813,7 +772,7 @@
       <c r="G9" s="6">
         <v>0.20699999999999999</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="25">
         <v>0.32650430000000003</v>
       </c>
       <c r="I9" s="6">
@@ -822,7 +781,7 @@
       <c r="J9" s="8">
         <v>0.48299999999999998</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="8">
         <v>-0.66311719999999996</v>
       </c>
       <c r="L9" s="6">
@@ -836,8 +795,8 @@
       <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6">
-        <v>64</v>
+      <c r="D10" s="10">
+        <v>84</v>
       </c>
       <c r="E10" s="10">
         <v>472</v>
@@ -848,7 +807,7 @@
       <c r="G10" s="8">
         <v>0.20899999999999999</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="8">
         <v>-0.75260099999999996</v>
       </c>
       <c r="I10" s="6">
@@ -857,14 +816,14 @@
       <c r="J10" s="8">
         <v>0.53800000000000003</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="8">
         <v>-0.64857286999999997</v>
       </c>
       <c r="L10" s="6">
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
@@ -872,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="10">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E11" s="10">
         <v>380</v>
@@ -883,7 +842,7 @@
       <c r="G11" s="8">
         <v>0.21</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="8">
         <v>-6.1433830000000002E-2</v>
       </c>
       <c r="I11" s="6">
@@ -892,27 +851,27 @@
       <c r="J11" s="8">
         <v>0.52</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="8">
         <v>-9.1708769999999995E-2</v>
       </c>
       <c r="L11" s="6">
         <v>0.501</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
+    <row r="12" spans="2:12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
@@ -958,25 +917,25 @@
       <c r="E14" s="3">
         <v>442</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <v>383</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="22">
         <v>0.14348630000000001</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="22">
         <v>-0.3411457</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="24">
+      <c r="I14" s="19"/>
+      <c r="J14" s="22">
         <v>0.40887570000000001</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="22">
         <v>8.3086759999999996E-2</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
@@ -989,25 +948,25 @@
       <c r="E15" s="6">
         <v>345</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="17">
         <v>279</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="23">
         <v>0.15870790000000001</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="23">
         <v>0.14272679999999999</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="17">
+      <c r="I15" s="20"/>
+      <c r="J15" s="23">
         <v>0.38151770000000002</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="23">
         <v>-0.37441459999999999</v>
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
@@ -1020,25 +979,25 @@
       <c r="E16" s="6">
         <v>362</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="17">
         <v>284</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="28">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H16" s="28">
         <v>-0.32689010000000002</v>
       </c>
-      <c r="H16" s="17">
-        <v>-0.32689010000000002</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="17">
+      <c r="I16" s="20"/>
+      <c r="J16" s="23">
         <v>0.37267420000000001</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="23">
         <v>0.15707360000000001</v>
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
@@ -1051,20 +1010,20 @@
       <c r="E17" s="6">
         <v>263</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="17">
         <v>191</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="23">
         <v>0.1502713</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="23">
         <v>9.441447E-2</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="25">
+      <c r="I17" s="20"/>
+      <c r="J17" s="26">
         <v>0.34782629999999998</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="23">
         <v>-0.45434160000000001</v>
       </c>
       <c r="L17" s="6"/>
@@ -1082,25 +1041,25 @@
       <c r="E18" s="6">
         <v>324</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="17">
         <v>173</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="23">
         <v>0.13023950000000001</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="23">
         <v>-0.2822615</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="17">
+      <c r="I18" s="20"/>
+      <c r="J18" s="23">
         <v>0.34664210000000001</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="23">
         <v>-0.14173469999999999</v>
       </c>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>2</v>
       </c>
@@ -1113,23 +1072,29 @@
       <c r="E19" s="12">
         <v>276</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="18">
         <v>136</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="24">
         <v>0.13894200000000001</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="24">
         <v>5.7448770000000003E-2</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="26">
+      <c r="I19" s="21"/>
+      <c r="J19" s="24">
         <v>0.34098070000000003</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="24">
         <v>6.6938269999999994E-2</v>
       </c>
       <c r="L19" s="12"/>
+    </row>
+    <row r="22" spans="2:12" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="2:12" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="D23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
